--- a/ドキュメント類/コード整理.xlsx
+++ b/ドキュメント類/コード整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinno\git\2020_application_repoitory\ドキュメント類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6679DD93-2B76-4266-B2A2-20C08D479C6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CADA98-EEAE-4258-9947-02ED5B1D8DBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="4" xr2:uid="{5E4483A8-371B-4B7D-8EC3-729651B55CE1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{5E4483A8-371B-4B7D-8EC3-729651B55CE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="3" r:id="rId1"/>
@@ -15087,8 +15087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15115860-9E93-401C-AAD1-5207A80A2332}">
   <dimension ref="B1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -15251,6 +15251,7 @@
   <autoFilter ref="C4:D4" xr:uid="{9F17064E-45DE-4683-9B2A-18C26930C8BA}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16040,7 +16041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A944AD-1B3B-4BD1-A2E2-B2BFCC279466}">
   <dimension ref="B1:D4539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1008" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2737" sqref="D2737"/>
     </sheetView>
   </sheetViews>
